--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\saclaopr18.spring8.or.jp\ses-users\jkenichi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CFB796-7988-4910-8354-2BE867D0EC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65AF40C-7884-49F8-BD80-389C2E95F592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SACLAパラメータ" sheetId="7" r:id="rId1"/>
     <sheet name="SACLA" sheetId="12" r:id="rId2"/>
-    <sheet name="BL" sheetId="6" r:id="rId3"/>
-    <sheet name="TopUP中のVMEリブート" sheetId="10" r:id="rId4"/>
+    <sheet name="その他SACLA" sheetId="18" r:id="rId3"/>
+    <sheet name="BL" sheetId="6" r:id="rId4"/>
     <sheet name="VMEリブート" sheetId="17" r:id="rId5"/>
-    <sheet name="KickerPattern" sheetId="1" r:id="rId6"/>
-    <sheet name="Kicker" sheetId="2" r:id="rId7"/>
-    <sheet name="SR接続" sheetId="3" r:id="rId8"/>
-    <sheet name="SR切離接続" sheetId="4" r:id="rId9"/>
-    <sheet name="SR完全切離" sheetId="11" r:id="rId10"/>
-    <sheet name="SACLA入室" sheetId="16" r:id="rId11"/>
-    <sheet name="ゼロクロス" sheetId="8" r:id="rId12"/>
-    <sheet name="SR" sheetId="9" r:id="rId13"/>
-    <sheet name="その他" sheetId="15" r:id="rId14"/>
-    <sheet name="SR引継" sheetId="13" r:id="rId15"/>
-    <sheet name="空打ちを省くには" sheetId="5" r:id="rId16"/>
-    <sheet name="SR BL" sheetId="14" r:id="rId17"/>
-    <sheet name="その他SACLA" sheetId="18" r:id="rId18"/>
+    <sheet name="TopUP中のVMEリブート" sheetId="10" r:id="rId6"/>
+    <sheet name="KickerPattern" sheetId="1" r:id="rId7"/>
+    <sheet name="Kicker" sheetId="2" r:id="rId8"/>
+    <sheet name="SR接続" sheetId="3" r:id="rId9"/>
+    <sheet name="SR切離接続" sheetId="4" r:id="rId10"/>
+    <sheet name="SR完全切離" sheetId="11" r:id="rId11"/>
+    <sheet name="SACLA入室" sheetId="16" r:id="rId12"/>
+    <sheet name="ゼロクロス" sheetId="8" r:id="rId13"/>
+    <sheet name="SR" sheetId="9" r:id="rId14"/>
+    <sheet name="その他" sheetId="15" r:id="rId15"/>
+    <sheet name="SR引継" sheetId="13" r:id="rId16"/>
+    <sheet name="空打ちを省くには" sheetId="5" r:id="rId17"/>
+    <sheet name="SR BL" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="387">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -2828,6 +2828,238 @@
   <si>
     <t>2PLCをONにしないとメインPLCタッチパネルから何も見えない。 モジュールエラーについて。 内部PLCユニット内の所属するモジュール入出力モジュールの入出力照合エラーまたは、 入出力モジュールエラー。 完全にOFFの場合からは、PLC１をONにしても、PLCは起動せず、PLC２をONにすると、1が起動するようになっている。双方が起動状態で、PLC１をOFF/ONすると、モジュールエラーが復旧できない。このため、LNPS１がダウンした場合、復旧時、２が問題なくても一度2も再立ち上げが必要 結論LNPSの起動順は 2→１が正しい手順となる 以上</t>
   </si>
+  <si>
+    <t>・16-bit ADC を搭載している箇所の電源を入れ直す。（cb08-1, cb08-2, cb08-3, cb17-, cb18-, bl2-, bl3-, bt-）</t>
+    <rPh sb="13" eb="15">
+      <t>トウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・光路長の箇所注意！</t>
+    <rPh sb="1" eb="4">
+      <t>コウロチョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・LH1は現場でグラパネつないでリブートする。リブート後、光路長の初期設定を投げる必要有</t>
+    <rPh sb="5" eb="7">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>コウロチョウ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ショキセッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・マスター止まると、運転インターロックシステムのアラーム CTCU: INHIBITION ALARM が発報（原因は不明、CHOPPER の UNIT ERROR の INHIBITION が赤点燈）している。松原に連絡した。</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウンテン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>アカテントウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>マツバラ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　VMEリブートで藤本GUIでリブートできないのでリブート後手動で光路長の初期設定をしないとoptmonなどの値が読めない</t>
+    <rPh sb="9" eb="11">
+      <t>フジモト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>コウロチョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>キッカー電磁石電源の output を OFF、420V OFF してから MS-1 の VME (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>xftmg-ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> と </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>xfmon-ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) の電源を入れ直した。</t>
+    </r>
+    <rPh sb="4" eb="7">
+      <t>デンジシャク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>デンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VME 起動後に BPM のビーム位置データの正常を確認した。</t>
+    <rPh sb="4" eb="7">
+      <t>キドウゴ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この際、運転インターロックの warning が発報したが、トリガー復旧後にリセットすることで解消した。</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウンテン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハツホウ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>フッキュウゴ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・MS部のBPMが二値を取っている為、ADCの入っているVMEをリブートする。</t>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10keV、プロファイル改善調整後パラメータセーブ</t>
+    <rPh sb="12" eb="14">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -2839,7 +3071,7 @@
     <numFmt numFmtId="177" formatCode="[$-411]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日 (&quot;aaa&quot;)&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d\(aaa\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2981,6 +3213,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -3499,7 +3737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3587,11 +3825,12 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="44" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="ハイパーリンク" xfId="44" builtinId="8"/>
@@ -5345,10 +5584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O64"/>
+  <dimension ref="A2:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5658,6 +5897,14 @@
         <v>274</v>
       </c>
     </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45389</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5666,10 +5913,1084 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A2:N142"/>
+  <sheetViews>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10">
+        <v>0.41966435185185186</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10">
+        <v>0.4206597222222222</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="27"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="29"/>
+      <c r="D30" s="28">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="52"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" s="29"/>
+      <c r="D33" s="28">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" s="29"/>
+      <c r="D35" s="28">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="52"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" s="29"/>
+      <c r="D37" s="28">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="52"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="52"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="52"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" s="29"/>
+      <c r="D41" s="28">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" s="29"/>
+      <c r="D43" s="28">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="29"/>
+      <c r="D45" s="28">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="52"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" s="29"/>
+      <c r="D47" s="28">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="52"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" s="36"/>
+      <c r="E66" s="36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" s="19"/>
+      <c r="D67" s="37">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" s="19"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" s="19"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70" s="19"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72" s="19"/>
+      <c r="D72" s="37">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" s="19"/>
+      <c r="D73" s="37">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C75" s="19"/>
+      <c r="D75" s="37">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C76" s="19"/>
+      <c r="D76" s="37">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C78" s="19"/>
+      <c r="D78" s="37">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C80" s="19"/>
+      <c r="D80" s="37">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81" s="19"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="38"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C82" s="19"/>
+      <c r="D82" s="37">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C84" s="19"/>
+      <c r="D84" s="37">
+        <v>0.71875</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C86" s="19"/>
+      <c r="D86" s="37">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C88" s="19"/>
+      <c r="D88" s="37">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" s="19"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="38"/>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C90" s="19"/>
+      <c r="D90" s="37">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C92" s="19"/>
+      <c r="D92" s="37">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C94" s="19"/>
+      <c r="D94" s="37">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="E94" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C96" s="19"/>
+      <c r="D96" s="37">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C98" s="19"/>
+      <c r="D98" s="37">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="E98" s="38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="19"/>
+      <c r="D100" s="37">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E100" s="38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" s="19"/>
+      <c r="D101" s="37">
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C103" s="19"/>
+      <c r="D103" s="37">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="E103" s="38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C104" s="19"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C106" s="19"/>
+      <c r="D106" s="37">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C107" s="19"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C108" s="19"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C110" s="19"/>
+      <c r="D110" s="37">
+        <v>0.79583333333333339</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C111" s="19"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C113" s="19"/>
+      <c r="D113" s="37">
+        <v>0.7993055555555556</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C115" s="19"/>
+      <c r="D115" s="37">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C117" s="19"/>
+      <c r="D117" s="37">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C118" s="19"/>
+      <c r="D118" s="37">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C119" s="19"/>
+      <c r="D119" s="37">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C120" s="19"/>
+      <c r="D120" s="37">
+        <v>0.8027777777777777</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C122" s="19"/>
+      <c r="D122" s="37">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C124" s="19"/>
+      <c r="D124" s="37">
+        <v>0.8027777777777777</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C126" s="19"/>
+      <c r="D126" s="37">
+        <v>0.80347222222222225</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C128" s="19"/>
+      <c r="D128" s="37">
+        <v>0.80347222222222225</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C130" s="19"/>
+      <c r="D130" s="37">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C131" s="19"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C133" s="19"/>
+      <c r="D133" s="37">
+        <v>0.81111111111111101</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C135" s="19"/>
+      <c r="D135" s="37">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C137" s="19"/>
+      <c r="D137" s="37">
+        <v>0.81248842592592585</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C139" s="19"/>
+      <c r="D139" s="37">
+        <v>0.8125</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C140" s="19"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D141" s="36"/>
+      <c r="E141" s="36"/>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C142" s="19"/>
+      <c r="D142" s="37">
+        <v>0.81379629629629635</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05491C8C-5BC4-4587-B9AE-04238A170292}">
   <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -5832,11 +7153,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031D4AA4-BEFC-4AB0-BED5-0CDD5740E2B1}">
   <dimension ref="B3:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -5973,7 +7294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389AF3C3-F34F-480B-8B8D-EBA1CD2D754D}">
   <dimension ref="E5:E29"/>
   <sheetViews>
@@ -6103,11 +7424,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63356E66-3FC1-414D-AE99-B6D0A61990DF}">
   <dimension ref="B5:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -6325,7 +7646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DE49E4-4052-471E-B3F4-DEE74E411A55}">
   <dimension ref="F4"/>
   <sheetViews>
@@ -6347,7 +7668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0258DDE2-EFF4-457F-9F39-82CC2F212D67}">
   <dimension ref="B2:C17"/>
   <sheetViews>
@@ -6411,11 +7732,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="O27:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="E39" workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -6445,12 +7766,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE078C2-8185-4A24-BAFC-BC2DFCDE93FF}">
   <dimension ref="C4:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6529,63 +7850,6 @@
       <c r="C19" t="s">
         <v>150</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C303E80-EDFE-43C2-8BD0-DA1E9DA169AB}">
-  <dimension ref="D3:D11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D3" s="51"/>
-    </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D4" s="51" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D5" s="51" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="51" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="51" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="51" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="51" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="51" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6597,7 +7861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49181D1-A1DC-4BCF-82A9-7EE511A37325}">
   <dimension ref="C2:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -6897,6 +8161,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C303E80-EDFE-43C2-8BD0-DA1E9DA169AB}">
+  <dimension ref="D3:D17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="49"/>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="49" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="49"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6912,11 +8238,186 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB37B2B3-FFEB-4EC8-9279-E0919988488F}">
+  <dimension ref="B2:O40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="K2" s="50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>339</v>
+      </c>
+      <c r="K4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>340</v>
+      </c>
+      <c r="K5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>343</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>344</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B6E3AB-47CA-47F2-BB00-DD1EC07FE1D1}">
   <dimension ref="A3:R119"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
@@ -7699,138 +9200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB37B2B3-FFEB-4EC8-9279-E0919988488F}">
-  <dimension ref="B3:B40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" t="s">
-        <v>360</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -8041,11 +9411,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8064,7 +9434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -8213,1078 +9583,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:N142"/>
-  <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12">
-        <v>44116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10">
-        <v>0.41966435185185186</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10">
-        <v>0.4206597222222222</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="11"/>
-      <c r="D18" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28">
-        <v>0.4548611111111111</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="27"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="29"/>
-      <c r="D30" s="28">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" s="29"/>
-      <c r="D33" s="28">
-        <v>0.4597222222222222</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" s="29"/>
-      <c r="D35" s="28">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C37" s="29"/>
-      <c r="D37" s="28">
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="50"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="50"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" s="29"/>
-      <c r="D41" s="28">
-        <v>0.47361111111111115</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" s="29"/>
-      <c r="D43" s="28">
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" s="29"/>
-      <c r="D45" s="28">
-        <v>0.49583333333333335</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" s="29"/>
-      <c r="D47" s="28">
-        <v>0.49652777777777773</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-    </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D66" s="36"/>
-      <c r="E66" s="36" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C67" s="19"/>
-      <c r="D67" s="37">
-        <v>0.70694444444444438</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C68" s="19"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="38" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C69" s="19"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C70" s="19"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C72" s="19"/>
-      <c r="D72" s="37">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="E72" s="39" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C73" s="19"/>
-      <c r="D73" s="37">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="E73" s="38" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C75" s="19"/>
-      <c r="D75" s="37">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C76" s="19"/>
-      <c r="D76" s="37">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C78" s="19"/>
-      <c r="D78" s="37">
-        <v>0.71597222222222223</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C80" s="19"/>
-      <c r="D80" s="37">
-        <v>0.71597222222222223</v>
-      </c>
-      <c r="E80" s="38" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C81" s="19"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="38"/>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C82" s="19"/>
-      <c r="D82" s="37">
-        <v>0.71597222222222223</v>
-      </c>
-      <c r="E82" s="38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C84" s="19"/>
-      <c r="D84" s="37">
-        <v>0.71875</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C86" s="19"/>
-      <c r="D86" s="37">
-        <v>0.71944444444444444</v>
-      </c>
-      <c r="E86" s="38" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C88" s="19"/>
-      <c r="D88" s="37">
-        <v>0.71944444444444444</v>
-      </c>
-      <c r="E88" s="38" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C89" s="19"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="38"/>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C90" s="19"/>
-      <c r="D90" s="37">
-        <v>0.71944444444444444</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C92" s="19"/>
-      <c r="D92" s="37">
-        <v>0.72013888888888899</v>
-      </c>
-      <c r="E92" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C94" s="19"/>
-      <c r="D94" s="37">
-        <v>0.72013888888888899</v>
-      </c>
-      <c r="E94" s="38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C96" s="19"/>
-      <c r="D96" s="37">
-        <v>0.72152777777777777</v>
-      </c>
-      <c r="E96" s="38" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C98" s="19"/>
-      <c r="D98" s="37">
-        <v>0.72152777777777777</v>
-      </c>
-      <c r="E98" s="38" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C100" s="19"/>
-      <c r="D100" s="37">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="E100" s="38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C101" s="19"/>
-      <c r="D101" s="37">
-        <v>0.72291666666666676</v>
-      </c>
-      <c r="E101" s="38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C103" s="19"/>
-      <c r="D103" s="37">
-        <v>0.77013888888888893</v>
-      </c>
-      <c r="E103" s="38" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C104" s="19"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C106" s="19"/>
-      <c r="D106" s="37">
-        <v>0.77430555555555547</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C107" s="19"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C108" s="19"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C110" s="19"/>
-      <c r="D110" s="37">
-        <v>0.79583333333333339</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C111" s="19"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-    </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C113" s="19"/>
-      <c r="D113" s="37">
-        <v>0.7993055555555556</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C115" s="19"/>
-      <c r="D115" s="37">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="E115" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-    </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C117" s="19"/>
-      <c r="D117" s="37">
-        <v>0.80138888888888893</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C118" s="19"/>
-      <c r="D118" s="37">
-        <v>0.80138888888888893</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C119" s="19"/>
-      <c r="D119" s="37">
-        <v>0.80138888888888893</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C120" s="19"/>
-      <c r="D120" s="37">
-        <v>0.8027777777777777</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C122" s="19"/>
-      <c r="D122" s="37">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C124" s="19"/>
-      <c r="D124" s="37">
-        <v>0.8027777777777777</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C126" s="19"/>
-      <c r="D126" s="37">
-        <v>0.80347222222222225</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C128" s="19"/>
-      <c r="D128" s="37">
-        <v>0.80347222222222225</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C130" s="19"/>
-      <c r="D130" s="37">
-        <v>0.80902777777777779</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C131" s="19"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
-    </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C133" s="19"/>
-      <c r="D133" s="37">
-        <v>0.81111111111111101</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-    </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C135" s="19"/>
-      <c r="D135" s="37">
-        <v>0.81180555555555556</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
-    </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C137" s="19"/>
-      <c r="D137" s="37">
-        <v>0.81248842592592585</v>
-      </c>
-      <c r="E137" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
-    </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C139" s="19"/>
-      <c r="D139" s="37">
-        <v>0.8125</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C140" s="19"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D141" s="36"/>
-      <c r="E141" s="36"/>
-    </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C142" s="19"/>
-      <c r="D142" s="37">
-        <v>0.81379629629629635</v>
-      </c>
-      <c r="E142" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65AF40C-7884-49F8-BD80-389C2E95F592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3434DD-6AA0-4CCA-91F0-A5E3556A9050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="406">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -2829,38 +2829,6 @@
     <t>2PLCをONにしないとメインPLCタッチパネルから何も見えない。 モジュールエラーについて。 内部PLCユニット内の所属するモジュール入出力モジュールの入出力照合エラーまたは、 入出力モジュールエラー。 完全にOFFの場合からは、PLC１をONにしても、PLCは起動せず、PLC２をONにすると、1が起動するようになっている。双方が起動状態で、PLC１をOFF/ONすると、モジュールエラーが復旧できない。このため、LNPS１がダウンした場合、復旧時、２が問題なくても一度2も再立ち上げが必要 結論LNPSの起動順は 2→１が正しい手順となる 以上</t>
   </si>
   <si>
-    <t>・16-bit ADC を搭載している箇所の電源を入れ直す。（cb08-1, cb08-2, cb08-3, cb17-, cb18-, bl2-, bl3-, bt-）</t>
-    <rPh sb="13" eb="15">
-      <t>トウサイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ナオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・光路長の箇所注意！</t>
-    <rPh sb="1" eb="4">
-      <t>コウロチョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・LH1は現場でグラパネつないでリブートする。リブート後、光路長の初期設定を投げる必要有</t>
     <rPh sb="5" eb="7">
       <t>ゲンバ</t>
@@ -3058,6 +3026,156 @@
     <rPh sb="16" eb="17">
       <t>ゴ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パラメータセーブ：2024/04/08 08:07:38 BL2=7.976GeV/10keV/400uJ, BL3=7.976GeV/10keV/640uJ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2024年2月19日の2直から強度を上げる為に入射部から調整を行っている。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウド</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ニュウシャブ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それ以降、BL2、BL3の安定性、プロファイルも悪化</t>
+    <rPh sb="2" eb="4">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>アンテイセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>アッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現状、既知の注意箇所としては以下がある​</t>
+  </si>
+  <si>
+    <t>・Gun（238MHzも落ちる)​</t>
+  </si>
+  <si>
+    <t>・MS（Kickerの運転を停止する必要がある）</t>
+  </si>
+  <si>
+    <t>・マスター停止した際　　「16-bit ADC を搭載している箇所の電源を入れ直す。（cb08-1, cb08-2, cb08-3, cb17-, cb18-, bl2-, bl3-, bt-）」</t>
+    <rPh sb="5" eb="7">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウサイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パラメータ保存　2024/04/15 21:11:22 BL2=7.976GeV/10keV/360uJ, BL3=7.976GeV/10keV/520uJ	</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2024/02/05 22:35:43 7.976/7.976GeV BL2 10keV 430uJ/BL3 10keV 700uJ(ID8-210uJ)</t>
+  </si>
+  <si>
+    <t>2024/02/08 09:25:29 7.976/7.976GeV BL2 10keV 420uJ/BL3 9.12keV 650uJ</t>
+  </si>
+  <si>
+    <t>前日2直で調整途中のパラメータはBL2 の FEL パルスエネルギーは 100 μJ 程度だがプロファイルは悪くなかった。</t>
+  </si>
+  <si>
+    <t>原TLよりこのパラメータでBL2基準で一度上流から調整を行うよう指示を受け、入射部より収束系を調整</t>
+  </si>
+  <si>
+    <t>BL2.3共にID10以降のKINK,OFFSETScanを行うよう指示を受けた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4/14のログ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4/15 明日の調整方針、装置責任者　原より</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入射部の（ST、トリプレットなど）パラメータを上記のパラメータに戻す。      結局これはやらず</t>
+    <rPh sb="41" eb="43">
+      <t>ケッキョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2024/05/08 08:50:04 BL2=7.976GeV/10keV/320uJ, BL3=7.976GeV/10keV/680uJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GW明け　BL3前段が400も出てる</t>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンダン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ML_GUNを振ってもcharge感度がない件で、入射部軸出し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータDB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※BL2は後段kink、BL3 オフセットをつけている</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3737,7 +3855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3829,6 +3947,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -3983,6 +4102,99 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10390</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>55747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5109513-AD81-42FB-878B-D670169D6C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5118100" y="18516600"/>
+          <a:ext cx="2651990" cy="1884547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33916</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50402</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>55747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2ACE939-5764-4C0D-BE9F-64EE2D369C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7793616" y="18516600"/>
+          <a:ext cx="2658086" cy="1884547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -4028,7 +4240,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4781,7 +4993,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4901,7 +5113,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4950,7 +5162,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5584,10 +5796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O66"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5597,318 +5809,398 @@
     <col min="3" max="3" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D3" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="11" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M5">
+      <c r="M8">
         <v>32</v>
       </c>
-      <c r="N5">
+      <c r="N8">
         <v>64</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>64</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M8">
+      <c r="M11">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="M19">
-        <v>31</v>
-      </c>
-      <c r="N19">
-        <v>34</v>
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20">
-        <v>43</v>
-      </c>
-      <c r="O20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22">
+        <v>31</v>
+      </c>
+      <c r="N22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="M23">
+        <v>43</v>
+      </c>
+      <c r="O23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
         <v>132</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>131</v>
       </c>
-      <c r="M21">
+      <c r="M24">
         <v>36</v>
       </c>
-      <c r="N21">
+      <c r="N24">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="2">
         <v>44383</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="26" t="s">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" t="s">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
         <v>163</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" t="s">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
         <v>174</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" t="s">
         <v>178</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
         <v>177</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
         <v>179</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C40" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D40" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" s="21" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D41" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="12">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="12">
         <v>44663</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>184</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
         <v>195</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C47" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" t="s">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" t="s">
         <v>200</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C49" s="33" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" t="s">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" t="s">
         <v>202</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C51" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" t="s">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" t="s">
         <v>204</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C53" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" t="s">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" t="s">
         <v>206</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" s="34">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" s="34">
         <v>44704.875</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" t="s">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" t="s">
         <v>210</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C59" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C58" t="s">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C60" t="s">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" t="s">
         <v>218</v>
       </c>
-      <c r="L60" s="35" t="s">
+      <c r="L63" s="35" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="21" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C65" s="21" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C64" s="21" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" s="21" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="11" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C66" s="2">
-        <v>45389</v>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" t="s">
+        <v>402</v>
+      </c>
+      <c r="C95" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{83180166-0133-4AAA-A697-B3706E663658}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6096,12 +6388,12 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="29"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -6144,10 +6436,10 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="29"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="52"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
@@ -6208,10 +6500,10 @@
       <c r="D35" s="28">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="52"/>
+      <c r="F35" s="53"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -6240,10 +6532,10 @@
       <c r="D37" s="28">
         <v>0.46666666666666662</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="52"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
@@ -6256,10 +6548,10 @@
     <row r="38" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="52"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
@@ -6272,10 +6564,10 @@
     <row r="39" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="29"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="52"/>
+      <c r="F39" s="53"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -6368,10 +6660,10 @@
       <c r="D45" s="28">
         <v>0.49583333333333335</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="52"/>
+      <c r="F45" s="53"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -6416,10 +6708,10 @@
     <row r="48" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="29"/>
       <c r="D48" s="30"/>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="52"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
@@ -8213,7 +8505,7 @@
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -8242,31 +8534,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB37B2B3-FFEB-4EC8-9279-E0919988488F}">
   <dimension ref="B2:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K2" s="50" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>338</v>
       </c>
-      <c r="K3" t="s">
-        <v>378</v>
-      </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>339</v>
       </c>
       <c r="K4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -8274,7 +8563,7 @@
         <v>340</v>
       </c>
       <c r="K5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -8287,7 +8576,7 @@
         <v>342</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -8299,7 +8588,7 @@
         <v>343</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -8308,7 +8597,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K9" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -8320,7 +8609,7 @@
         <v>344</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -8332,14 +8621,25 @@
         <v>345</v>
       </c>
     </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="K12" t="s">
+        <v>388</v>
+      </c>
+    </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>346</v>
       </c>
+      <c r="K13" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>347</v>
+      </c>
+      <c r="K14" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">

--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3434DD-6AA0-4CCA-91F0-A5E3556A9050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A30B85-7F87-4FB1-AFFF-59EBFECDD8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="410">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -3167,15 +3178,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ML_GUNを振ってもcharge感度がない件で、入射部軸出し</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パラメータDB</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※BL2は後段kink、BL3 オフセットをつけている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パラメータセーブ：2024/05/10 09:00:37 BL2=7.976GeV/10keV/350uJ, BL3=7.976GeV/10keV/700uJ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カソード　0.9 -&gt; 0.82A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ML_GUNを振ってもcharge感度がない件で、入射部軸出し
+光軸調整後をロードしたのでオフセットやキンクは解消</t>
+    <rPh sb="55" eb="57">
+      <t>カイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ保存：2024/05/11 14:39:49 BL2=7.976GeV/10keV/400uJ, BL3=7.976GeV/10keV/680uJ</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BL2/BL3 待機号機2台へ増やしたパラメータ</t>
+    <rPh sb="8" eb="10">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴウキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3855,7 +3901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3950,6 +3996,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="ハイパーリンク" xfId="44" builtinId="8"/>
@@ -5796,10 +5843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5811,7 +5858,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -6174,7 +6221,7 @@
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="51" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>392</v>
@@ -6188,9 +6235,25 @@
         <v>401</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" t="s">
-        <v>403</v>
+    <row r="97" spans="2:3" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A30B85-7F87-4FB1-AFFF-59EBFECDD8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CC920A-04C6-4D63-A909-0ECA56FBE14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SACLAパラメータ" sheetId="7" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="421">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -3223,6 +3223,43 @@
       <t>フ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SACLAのビームルート変更GUI(xfel_fast_switching.MM_SR_injection)</t>
+  </si>
+  <si>
+    <t>とXSBTのユニット切替GUIのChopper OFFの兼ね合いについてソースを調べました。</t>
+  </si>
+  <si>
+    <t>Chopper OFFとする条件は</t>
+  </si>
+  <si>
+    <t>①GUN HV OFFの時</t>
+  </si>
+  <si>
+    <t>②GUN 直下のGVが閉の時</t>
+  </si>
+  <si>
+    <t>③機器保護INTLKによるChopper OFF時</t>
+  </si>
+  <si>
+    <t>④運転INTLKによるChopper OFF時</t>
+  </si>
+  <si>
+    <t>⑤安全INTLKによるChopper OFF時</t>
+  </si>
+  <si>
+    <t>セルフシード再現</t>
+    <rPh sb="6" eb="8">
+      <t>サイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://saclaopr19.spring8.or.jp/~logsearch/viewer/?SACLA/operation_log/2023/04/2023_04_10_shift2.htm</t>
+  </si>
+  <si>
+    <t>http://saclaopr19.spring8.or.jp/~logsearch/viewer/?SACLA/operation_log/2023/05/2023_05_26_shift3.htm</t>
   </si>
 </sst>
 </file>
@@ -3994,9 +4031,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="ハイパーリンク" xfId="44" builtinId="8"/>
@@ -5845,7 +5882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
@@ -6244,7 +6281,7 @@
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" s="54" t="s">
+      <c r="B100" s="52" t="s">
         <v>409</v>
       </c>
       <c r="C100" s="11" t="s">
@@ -6271,7 +6308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:N142"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
@@ -6451,12 +6488,12 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="29"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -6499,10 +6536,10 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="29"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="53"/>
+      <c r="F31" s="54"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
@@ -6563,10 +6600,10 @@
       <c r="D35" s="28">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="53"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -6595,10 +6632,10 @@
       <c r="D37" s="28">
         <v>0.46666666666666662</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="53"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
@@ -6611,10 +6648,10 @@
     <row r="38" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="53"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
@@ -6627,10 +6664,10 @@
     <row r="39" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="29"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="53"/>
+      <c r="F39" s="54"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -6723,10 +6760,10 @@
       <c r="D45" s="28">
         <v>0.49583333333333335</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="53"/>
+      <c r="F45" s="54"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -6771,10 +6808,10 @@
     <row r="48" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="29"/>
       <c r="D48" s="30"/>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="53"/>
+      <c r="F48" s="54"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
@@ -7345,8 +7382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05491C8C-5BC4-4587-B9AE-04238A170292}">
   <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7513,7 +7550,7 @@
   <dimension ref="B3:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7783,7 +7820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63356E66-3FC1-414D-AE99-B6D0A61990DF}">
   <dimension ref="B5:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="C31" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -8003,20 +8040,14 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DE49E4-4052-471E-B3F4-DEE74E411A55}">
-  <dimension ref="F4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="4" spans="6:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8027,7 +8058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0258DDE2-EFF4-457F-9F39-82CC2F212D67}">
   <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -8216,8 +8247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49181D1-A1DC-4BCF-82A9-7EE511A37325}">
   <dimension ref="C2:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8517,14 +8548,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C303E80-EDFE-43C2-8BD0-DA1E9DA169AB}">
-  <dimension ref="D3:D17"/>
+  <dimension ref="D2:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+    </row>
     <row r="3" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="49"/>
     </row>
@@ -8569,6 +8605,61 @@
     <row r="17" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="11" t="s">
         <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CC920A-04C6-4D63-A909-0ECA56FBE14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C56A86C-57D3-47F3-80D4-93970F8726E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SACLAパラメータ" sheetId="7" r:id="rId1"/>
@@ -2248,13 +2248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RFユニットHV ALL OFF。RF、TCSアラーム監視OFF</t>
-    <rPh sb="27" eb="29">
-      <t>カンシ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
     <t>RFユニットHV ALL ON。RF、TCSアラーム監視OFF</t>
     <rPh sb="26" eb="28">
       <t>カンシ</t>
@@ -3260,6 +3253,26 @@
   </si>
   <si>
     <t>http://saclaopr19.spring8.or.jp/~logsearch/viewer/?SACLA/operation_log/2023/05/2023_05_26_shift3.htm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RFユニットHV ALL OFF。RF、TCSアラーム監視OFF  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCSSも</t>
+    </r>
+    <rPh sb="27" eb="29">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
@@ -5895,7 +5908,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -6200,97 +6213,97 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>384</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C95" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -7409,7 +7422,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="N6" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -7420,7 +7433,7 @@
         <v>298</v>
       </c>
       <c r="N7" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -7549,8 +7562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031D4AA4-BEFC-4AB0-BED5-0CDD5740E2B1}">
   <dimension ref="B3:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7560,7 +7573,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -7576,7 +7589,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -7621,7 +7634,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -7653,7 +7666,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8058,7 +8071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0258DDE2-EFF4-457F-9F39-82CC2F212D67}">
   <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -8487,7 +8500,7 @@
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E82" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.55000000000000004">
@@ -8507,32 +8520,32 @@
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E86" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E87" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E88" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E89" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E90" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E91" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -8566,37 +8579,37 @@
     </row>
     <row r="4" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.55000000000000004">
@@ -8604,62 +8617,62 @@
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -8696,41 +8709,41 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K2" s="50" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -8739,10 +8752,10 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -8751,7 +8764,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K9" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -8760,10 +8773,10 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -8772,93 +8785,93 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -9017,7 +9030,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -9039,7 +9052,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -9114,7 +9127,7 @@
         <v>0.38680555555555557</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9127,21 +9140,21 @@
         <v>0.41944444444444445</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9226,14 +9239,14 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="9"/>
       <c r="B65" s="10"/>
       <c r="C65" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9244,21 +9257,21 @@
       <c r="A67" s="9"/>
       <c r="B67" s="10"/>
       <c r="C67" s="44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="9"/>
       <c r="B68" s="10"/>
       <c r="C68" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9271,14 +9284,14 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9291,21 +9304,21 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="9"/>
       <c r="B75" s="10"/>
       <c r="C75" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="9"/>
       <c r="B76" s="10"/>
       <c r="C76" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9364,7 +9377,7 @@
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="45"/>
@@ -9536,7 +9549,7 @@
       <c r="A110" s="9"/>
       <c r="B110" s="10"/>
       <c r="C110" s="46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D110" s="47"/>
       <c r="E110" s="47"/>
@@ -9548,7 +9561,7 @@
       <c r="A111" s="9"/>
       <c r="B111" s="10"/>
       <c r="C111" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D111" s="47"/>
       <c r="E111" s="47"/>
@@ -9560,7 +9573,7 @@
       <c r="A112" s="9"/>
       <c r="B112" s="10"/>
       <c r="C112" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D112" s="47"/>
       <c r="E112" s="47"/>
@@ -9572,7 +9585,7 @@
       <c r="A113" s="9"/>
       <c r="B113" s="10"/>
       <c r="C113" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D113" s="47"/>
       <c r="E113" s="47"/>
@@ -9594,7 +9607,7 @@
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D115" s="47"/>
       <c r="E115" s="47"/>
@@ -9606,7 +9619,7 @@
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D116" s="47"/>
       <c r="E116" s="47"/>
@@ -9618,7 +9631,7 @@
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D117" s="47"/>
       <c r="E117" s="47"/>

--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C56A86C-57D3-47F3-80D4-93970F8726E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF09F30-7CE9-4C2F-956B-A9A4D22ADF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SACLAパラメータ" sheetId="7" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="424">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -3273,6 +3273,27 @@
       <t>カンシ</t>
     </rPh>
     <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>パラメータセーブ  "2024/05/27 12:22:46 BL2=7.976GeV, BL3=7.976GeV MainLinac Crest"</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>クレスト確認</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エミッション電流を0.82A→0.75Aへ変更</t>
+    <rPh sb="6" eb="8">
+      <t>デンリュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -5893,10 +5914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6304,6 +6325,22 @@
     <row r="101" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" t="s">
         <v>405</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" t="s">
+        <v>422</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C105" s="34">
+        <v>45440.225694444445</v>
       </c>
     </row>
   </sheetData>
@@ -7562,8 +7599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031D4AA4-BEFC-4AB0-BED5-0CDD5740E2B1}">
   <dimension ref="B3:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF09F30-7CE9-4C2F-956B-A9A4D22ADF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA37DF6-5F08-4583-8724-6852153BB0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="425">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -3294,6 +3294,16 @@
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CB02-2 Abnormal頻発でCB01-2と切替え</t>
+    <rPh sb="15" eb="17">
+      <t>ヒンパツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キリカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5914,10 +5924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6341,6 +6351,14 @@
       </c>
       <c r="C105" s="34">
         <v>45440.225694444445</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" t="s">
+        <v>424</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45460</v>
       </c>
     </row>
   </sheetData>

--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA37DF6-5F08-4583-8724-6852153BB0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96A79A0-2224-424E-A8DA-ECD20180B271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="427">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -3302,6 +3302,20 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>キリカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パラメータ保存　 2024/06/24 19:36:01 BL2=7.976GeV/10keV/380uJ, BL3=7.976GeV/10keV 570uJ	</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>CB01-2が待機</t>
+    <rPh sb="7" eb="9">
+      <t>タイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5924,10 +5938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O107"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6359,6 +6373,17 @@
       </c>
       <c r="C107" s="2">
         <v>45460</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="11"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" t="s">
+        <v>426</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96A79A0-2224-424E-A8DA-ECD20180B271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05245D9C-E8B5-4588-90C5-F93E6A6C0D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="437">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -3318,6 +3318,94 @@
       <t>タイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パラメータセーブ：　2024/07/15 21:02:31 BL2=7.976GeV/10keV/300uJ BL3=7.976GeV/10keV/450uJ	</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>GUNカソード交換後。GUN直下のベンドなし</t>
+    <rPh sb="7" eb="10">
+      <t>コウカンゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前段が低い</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/18頃より、光ファイバー光路長制御装置 CB01-1 coarse 系統の位相が 1.0 deg を超えている件について以下の対処を実施</t>
+    <rPh sb="4" eb="5">
+      <t>ゴロ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①PID制御 OFF</t>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①CNT-U FINEをOFF</t>
+  </si>
+  <si>
+    <t>②CNT-U COARSEをOFF</t>
+  </si>
+  <si>
+    <t>③CNT-U COARSEをON　※ONした後COARSEのPHASE DETECTIONが0.0付近に近づく、0.0付近の値になるまで④には進めない</t>
+    <rPh sb="22" eb="23">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④CNT-U FINEをON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⑤PID制御 ON </t>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -3540,7 +3628,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3605,6 +3693,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3996,7 +4093,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4090,8 +4187,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="ハイパーリンク" xfId="44" builtinId="8"/>
@@ -4250,8 +4354,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>10390</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>156440</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>55747</xdr:rowOff>
     </xdr:to>
@@ -5938,17 +6042,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="36.08203125" customWidth="1"/>
-    <col min="3" max="3" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -6384,6 +6488,24 @@
       </c>
       <c r="C111" s="11" t="s">
         <v>425</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="C113" s="54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D115" s="57">
+        <v>45495.714583333334</v>
       </c>
     </row>
   </sheetData>
@@ -6581,12 +6703,12 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="29"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -6629,10 +6751,10 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="29"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="54"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
@@ -6693,10 +6815,10 @@
       <c r="D35" s="28">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="54"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -6725,10 +6847,10 @@
       <c r="D37" s="28">
         <v>0.46666666666666662</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="56"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
@@ -6741,10 +6863,10 @@
     <row r="38" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="54"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
@@ -6757,10 +6879,10 @@
     <row r="39" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="29"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="54"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -6853,10 +6975,10 @@
       <c r="D45" s="28">
         <v>0.49583333333333335</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="54"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -6901,10 +7023,10 @@
     <row r="48" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="29"/>
       <c r="D48" s="30"/>
-      <c r="E48" s="53" t="s">
+      <c r="E48" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="54"/>
+      <c r="F48" s="56"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
@@ -8338,10 +8460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49181D1-A1DC-4BCF-82A9-7EE511A37325}">
-  <dimension ref="C2:E91"/>
+  <dimension ref="C2:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8626,6 +8748,41 @@
     <row r="91" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E91" s="11" t="s">
         <v>365</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E96" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E97" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E99" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E100" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E101" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E102" s="11" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05245D9C-E8B5-4588-90C5-F93E6A6C0D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141569D8-F99E-44A4-9EA2-D4BF5F4EBA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="447">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -3407,6 +3407,138 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>パラメータ保存 "2024/09/18 13:10:57 BL3 Main Linac ALL Crest"</t>
+  </si>
+  <si>
+    <t>XSBTの調整について</t>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・RF位相、パルスQMはBL3の値をコピー</t>
+    <rPh sb="3" eb="5">
+      <t>イソウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Main Linacの位相をスキャンしてbpm_xsbt_5での分散部エネルギーが最大になる様にした(CB15-3、CB15-4は±30deg.のまま)</t>
+    <rPh sb="12" eb="14">
+      <t>イソウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ブンサンブ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・bpm_xsbt_5の分散部エネルギーが"2024/4/27 12:49:27"に合うようにCB05以降のINV充電電圧を調整した(46.5kV → 46.65kV(※CB05-1、CB13-3を除く))</t>
+    <rPh sb="12" eb="15">
+      <t>ブンサンブ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>ジュウデンデンアツ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・XSBTの軌道をSTで"2024/04/27 12:49:27"に近づく様にした</t>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・XSBT Mag(全ての変更電磁石、q_xsbt)は"2024/04/27 12:49:27"と同じ値にした (ディスパージョン直したらしい)</t>
+    <rPh sb="10" eb="11">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>デンジシャク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カソード延命の為の電子銃の繰返しを落した30Hz運転の方法</t>
+    <rPh sb="4" eb="6">
+      <t>エンメイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>デンシジュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クリカエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ウンテン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エミッション電流</t>
+    <rPh sb="6" eb="8">
+      <t>デンリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整列</t>
+    <rPh sb="0" eb="2">
+      <t>セイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3418,7 +3550,7 @@
     <numFmt numFmtId="177" formatCode="[$-411]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日 (&quot;aaa&quot;)&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d\(aaa\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3566,6 +3698,19 @@
       <name val="Cascadia Code"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -4093,7 +4238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4191,9 +4336,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4348,13 +4499,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>156440</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>55747</xdr:rowOff>
@@ -4392,13 +4543,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>33916</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>50402</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>55747</xdr:rowOff>
@@ -4438,6 +4589,745 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>186170</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82A48B0-6886-452B-BA71-2C9214EC0097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2788920" y="28087320"/>
+          <a:ext cx="10845800" cy="2959850"/>
+          <a:chOff x="2034540" y="447408300"/>
+          <a:chExt cx="7917180" cy="2959850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="グループ化 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F420E5D8-63F2-9591-4401-334F6C704E1A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2034540" y="447408300"/>
+            <a:ext cx="7917180" cy="2959850"/>
+            <a:chOff x="2034540" y="447408300"/>
+            <a:chExt cx="7917180" cy="2959850"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="テキスト ボックス 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A842C75-7B35-5CD2-1888-C825E0641412}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8237220" y="448353180"/>
+              <a:ext cx="1714500" cy="327660"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>BL3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Route</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>OFF</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>の状態</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="8" name="グループ化 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ECA9688-A893-3E1C-F06C-9DDA33142CDF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="2034540" y="447408300"/>
+              <a:ext cx="6198866" cy="2959850"/>
+              <a:chOff x="2034540" y="447408300"/>
+              <a:chExt cx="6198866" cy="2959850"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="グループ化 9">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA69912-E2D8-7628-9002-10D8EEA6ECED}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="2034540" y="447408300"/>
+                <a:ext cx="6198866" cy="2959850"/>
+                <a:chOff x="2034540" y="447408300"/>
+                <a:chExt cx="6198866" cy="2959850"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="12" name="グループ化 11">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F652BEB-CC47-19BF-A555-94D853604990}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="2034540" y="447408300"/>
+                  <a:ext cx="6198866" cy="2959850"/>
+                  <a:chOff x="2034540" y="445579500"/>
+                  <a:chExt cx="6198866" cy="2959850"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="14" name="グループ化 13">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EE5C60-22D2-887C-5111-2AD1EDA2CC4F}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="2095500" y="445952880"/>
+                    <a:ext cx="6137906" cy="2586470"/>
+                    <a:chOff x="2095500" y="445495680"/>
+                    <a:chExt cx="6137906" cy="2586470"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="16" name="図 15">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836FA848-2A98-7D4C-B7EF-0112853094E9}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill rotWithShape="1">
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+                    <a:srcRect b="89817"/>
+                    <a:stretch/>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="2095501" y="445495680"/>
+                      <a:ext cx="6137905" cy="1043940"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="17" name="図 16">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4BE702-B410-9170-6410-1775E7640D74}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill rotWithShape="1">
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+                    <a:srcRect t="85028"/>
+                    <a:stretch/>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="2095500" y="446547240"/>
+                      <a:ext cx="6137905" cy="1534910"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </xdr:spPr>
+                </xdr:pic>
+              </xdr:grpSp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="15" name="テキスト ボックス 14">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C274D1F0-256E-E707-42F8-FBB3F91FC352}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="2034540" y="445579500"/>
+                    <a:ext cx="1805940" cy="274320"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+                      <a:t>238MHZ</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+                      <a:t>と</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+                      <a:t>GUN</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+                      <a:t>の</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+                      <a:t>SWEMA</a:t>
+                    </a:r>
+                    <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:pic>
+              <xdr:nvPicPr>
+                <xdr:cNvPr id="13" name="図 12">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0FF935-5F8D-1AEB-F1F8-7D84851AD0AF}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvPicPr>
+                  <a:picLocks noChangeAspect="1"/>
+                </xdr:cNvPicPr>
+              </xdr:nvPicPr>
+              <xdr:blipFill rotWithShape="1">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+                <a:srcRect r="77157" b="89743"/>
+                <a:stretch/>
+              </xdr:blipFill>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2125981" y="447781680"/>
+                  <a:ext cx="1402079" cy="1051560"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+            </xdr:pic>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="11" name="矢印: 右 10">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFD1318-0ED6-F422-E37D-1789F2052E3F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="5400000">
+                <a:off x="2080260" y="447995040"/>
+                <a:ext cx="792480" cy="152400"/>
+              </a:xfrm>
+              <a:prstGeom prst="rightArrow">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="テキスト ボックス 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3518074-B2C6-D8EF-CAAF-72AD7D976643}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5349240" y="448894200"/>
+              <a:ext cx="3223260" cy="784860"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>BL2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>、</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>XSBT</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>運転の場合、</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>BL3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>の</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>Route</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>を</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>OFF</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>にする</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>beam</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>route</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>を選択し</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>route</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>を</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>OFF</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>にする。</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF2D957-4D3A-B7F7-B1A7-016C8B2801BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3451860" y="448863720"/>
+            <a:ext cx="1767840" cy="556260"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B061342-9353-9DE5-A7EE-9780132EB33B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2179320" y="448406520"/>
+            <a:ext cx="5996940" cy="220980"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4486,7 +5376,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5239,7 +6129,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5359,7 +6249,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5408,7 +6298,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6042,476 +6932,492 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O115"/>
+  <dimension ref="B1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.08203125" customWidth="1"/>
-    <col min="3" max="4" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.08203125" customWidth="1"/>
+    <col min="4" max="5" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" t="s">
+      <c r="H5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>32</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>64</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9">
         <v>32</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>64</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" t="s">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
         <v>91</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" t="s">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="s">
         <v>94</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" t="s">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
         <v>116</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" t="s">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" t="s">
         <v>114</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" t="s">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="D22" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>31</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" t="s">
         <v>120</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>119</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>43</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" t="s">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" t="s">
         <v>132</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>131</v>
-      </c>
-      <c r="M24">
-        <v>36</v>
       </c>
       <c r="N24">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="2">
+      <c r="O24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="2">
         <v>44383</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="26" t="s">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" t="s">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" t="s">
         <v>163</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" t="s">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" t="s">
         <v>174</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" t="s">
         <v>178</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" t="s">
         <v>177</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="D40" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" s="21" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="12">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="12">
         <v>44663</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>184</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" t="s">
         <v>195</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="D45" s="21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" t="s">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="D49" s="33" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" t="s">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" t="s">
         <v>202</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" t="s">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" t="s">
         <v>204</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" t="s">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" t="s">
         <v>206</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C57" s="34">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" s="34">
         <v>44704.875</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" t="s">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" t="s">
         <v>210</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C61" t="s">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D61" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C63" t="s">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" t="s">
         <v>218</v>
       </c>
-      <c r="L63" s="35" t="s">
+      <c r="M63" s="35" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="21" t="s">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="D65" s="21" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C67" s="21" t="s">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67" s="21" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="11" t="s">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="D69" s="11" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="11" t="s">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" s="11" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="11" t="s">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72" s="11" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" t="s">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" t="s">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" t="s">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C75" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" t="s">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C76" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" t="s">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C77" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" t="s">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C79" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" t="s">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" t="s">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C82" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="51" t="s">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C84" s="51" t="s">
         <v>403</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="11" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" t="s">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" t="s">
         <v>401</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="2:3" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" s="26" t="s">
+    <row r="97" spans="3:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="C97" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="D97" s="11" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" s="52" t="s">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="52" t="s">
         <v>408</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="D100" s="11" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" t="s">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" t="s">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C103" t="s">
         <v>422</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="D103" s="11" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B105" s="11" t="s">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C105" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="C105" s="34">
+      <c r="D105" s="34">
         <v>45440.225694444445</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B107" t="s">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C107" t="s">
         <v>424</v>
       </c>
-      <c r="C107" s="2">
+      <c r="D107" s="2">
         <v>45460</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B110" s="11"/>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B111" t="s">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C110" s="11"/>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C111" t="s">
         <v>426</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="D111" s="11" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="113" spans="2:4" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B113" s="53" t="s">
+    <row r="113" spans="2:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113"/>
+      <c r="C113" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="C113" s="54" t="s">
+      <c r="D113" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B114" t="s">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="53"/>
+      <c r="C114" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D115" s="57">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E115" s="55">
         <v>45495.714583333334</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B118">
+        <v>0.9</v>
+      </c>
+      <c r="C118" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="E118" s="56" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{83180166-0133-4AAA-A697-B3706E663658}"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{83180166-0133-4AAA-A697-B3706E663658}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -6703,12 +7609,12 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="29"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -6751,10 +7657,10 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="29"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="56"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
@@ -6815,10 +7721,10 @@
       <c r="D35" s="28">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -6847,10 +7753,10 @@
       <c r="D37" s="28">
         <v>0.46666666666666662</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="56"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
@@ -6863,10 +7769,10 @@
     <row r="38" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="56"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
@@ -6879,10 +7785,10 @@
     <row r="39" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="29"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="56"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -6975,10 +7881,10 @@
       <c r="D45" s="28">
         <v>0.49583333333333335</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E45" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="56"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -7023,10 +7929,10 @@
     <row r="48" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="29"/>
       <c r="D48" s="30"/>
-      <c r="E48" s="55" t="s">
+      <c r="E48" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="56"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
@@ -8460,10 +9366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49181D1-A1DC-4BCF-82A9-7EE511A37325}">
-  <dimension ref="C2:E102"/>
+  <dimension ref="C2:K153"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView topLeftCell="B120" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8755,35 +9661,415 @@
         <v>430</v>
       </c>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E97" s="11" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E98" s="11" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E99" s="11" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E100" s="11" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E101" s="11" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E102" s="11" t="s">
         <v>436</v>
       </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C106" s="12">
+        <v>45555</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E107" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E108" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E109" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E110" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E111" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C116" s="12">
+        <v>45555</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+    </row>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+    </row>
+    <row r="119" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+    </row>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+    </row>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+    </row>
+    <row r="122" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+    </row>
+    <row r="123" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+    </row>
+    <row r="124" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+    </row>
+    <row r="125" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+    </row>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+    </row>
+    <row r="127" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+    </row>
+    <row r="128" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+    </row>
+    <row r="129" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+    </row>
+    <row r="130" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+    </row>
+    <row r="131" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+    </row>
+    <row r="132" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+    </row>
+    <row r="133" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+    </row>
+    <row r="134" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+    </row>
+    <row r="135" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+    </row>
+    <row r="136" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+    </row>
+    <row r="137" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+    </row>
+    <row r="138" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+    </row>
+    <row r="139" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+    </row>
+    <row r="140" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+    </row>
+    <row r="141" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+    </row>
+    <row r="142" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+    </row>
+    <row r="143" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+    </row>
+    <row r="144" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+    </row>
+    <row r="145" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+    </row>
+    <row r="146" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+    </row>
+    <row r="147" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+    </row>
+    <row r="148" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+    </row>
+    <row r="149" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+    </row>
+    <row r="150" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+    </row>
+    <row r="151" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+    </row>
+    <row r="152" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+    </row>
+    <row r="153" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8793,6 +10079,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -8800,7 +10087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C303E80-EDFE-43C2-8BD0-DA1E9DA169AB}">
   <dimension ref="D2:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141569D8-F99E-44A4-9EA2-D4BF5F4EBA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B303B24B-2874-4A90-9F87-149DD484E12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="454">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -3536,6 +3536,55 @@
     <t>整列</t>
     <rPh sb="0" eb="2">
       <t>セイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータセーブ：2024/10/13 06:41:08 BL2=7.976GeV,10keV,460uJ BL3=7.976GeV,10keV,780uJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメーターセーブ：2024/10/22 01:10:25 BL2=7.976GeV,10keV,500uJ BL3=7.976GeV,10keV,980uJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインライナッククレストに合わせなおした</t>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータセーブ：2024/10/28 17:08:42 BL2=7.976GeV,10keV,480uJ BL3=7.976GeV,10keV,800uJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CB01-4 LNPS2交換の為待機に</t>
+    <rPh sb="12" eb="14">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB IQ変更</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CB01-4 待機を加速に　</t>
+    <rPh sb="7" eb="9">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3712,7 +3761,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3769,6 +3818,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4238,7 +4293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4342,11 +4397,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="ハイパーリンク" xfId="44" builtinId="8"/>
@@ -6932,21 +6996,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P118"/>
+  <dimension ref="B1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="58" customWidth="1"/>
     <col min="3" max="3" width="36.08203125" customWidth="1"/>
     <col min="4" max="5" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" t="s">
+      <c r="B1" s="58" t="s">
         <v>445</v>
       </c>
       <c r="D1" s="25" t="s">
@@ -7156,9 +7220,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="12">
-        <v>44663</v>
-      </c>
+      <c r="B43" s="59"/>
       <c r="C43" t="s">
         <v>184</v>
       </c>
@@ -7384,7 +7446,7 @@
       </c>
     </row>
     <row r="113" spans="2:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B113"/>
+      <c r="B113" s="58"/>
       <c r="C113" s="53" t="s">
         <v>428</v>
       </c>
@@ -7393,7 +7455,7 @@
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B114" s="53"/>
+      <c r="B114" s="60"/>
       <c r="C114" t="s">
         <v>429</v>
       </c>
@@ -7404,14 +7466,49 @@
       </c>
     </row>
     <row r="118" spans="2:5" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B118">
+      <c r="B118" s="58">
         <v>0.9</v>
       </c>
-      <c r="C118" s="59" t="s">
+      <c r="C118" s="57" t="s">
         <v>446</v>
       </c>
       <c r="E118" s="56" t="s">
         <v>437</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120" s="58">
+        <v>0.85</v>
+      </c>
+      <c r="C120" t="s">
+        <v>452</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C122" t="s">
+        <v>449</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C124" t="s">
+        <v>451</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C126" t="s">
+        <v>453</v>
+      </c>
+      <c r="E126" s="34">
+        <v>45600.874305555553</v>
       </c>
     </row>
   </sheetData>
@@ -7609,12 +7706,12 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="29"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -7657,10 +7754,10 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="29"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
@@ -7721,10 +7818,10 @@
       <c r="D35" s="28">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="58"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -7753,10 +7850,10 @@
       <c r="D37" s="28">
         <v>0.46666666666666662</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="58"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
@@ -7769,10 +7866,10 @@
     <row r="38" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="57" t="s">
+      <c r="E38" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="58"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
@@ -7785,10 +7882,10 @@
     <row r="39" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="29"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="58"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -7881,10 +7978,10 @@
       <c r="D45" s="28">
         <v>0.49583333333333335</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="58"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -7929,10 +8026,10 @@
     <row r="48" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="29"/>
       <c r="D48" s="30"/>
-      <c r="E48" s="57" t="s">
+      <c r="E48" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="58"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>

--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B303B24B-2874-4A90-9F87-149DD484E12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22D1000-6D83-45E4-9ED2-3BC04A904DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="459">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -3579,12 +3579,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CB01-4 待機を加速に　</t>
+    <t>2024/11/04 20:59:37 BL2=7.976GeV 10keV,430uJ FWHM:39eV BL3=7.976GeV,10keV,720uJ FWHM:29eV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CB01-2 待機に戻した　</t>
     <rPh sb="7" eb="9">
       <t>タイキ</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>カソク</t>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB AMP変更後BL3再現パラメータ仮セーブ：	2024/11/11 13:49:01 BL2=7.976GeV,10keV,250uJ BL3=7.976GeV,10keV,720uJ</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイゲン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024/11/18 21:50:29 BL2=7.976GeV,10keV,520uJ BL3=7.976GeV,10keV,820uJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;K AMP 交換　CB12-3(IQ Amp調整),18-1   </t>
+    <rPh sb="8" eb="10">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB INV FB導入
+LB IQ変更 0.7V</t>
+    <rPh sb="9" eb="11">
+      <t>ドウニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6996,10 +7038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P126"/>
+  <dimension ref="B1:P130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7505,10 +7547,26 @@
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C126" t="s">
+        <v>454</v>
+      </c>
+      <c r="E126" t="s">
         <v>453</v>
       </c>
-      <c r="E126" s="34">
-        <v>45600.874305555553</v>
+    </row>
+    <row r="128" spans="2:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C128" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C130" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22D1000-6D83-45E4-9ED2-3BC04A904DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C18B4-1A99-4417-BA76-48F6D51F0709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SACLAパラメータ" sheetId="7" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="504">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -1986,10 +1986,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">BL3 ID ALL </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>シード終了後</t>
     <rPh sb="3" eb="6">
       <t>シュウリョウゴ</t>
@@ -2775,13 +2771,6 @@
     <t>エネルギー変更</t>
     <rPh sb="5" eb="7">
       <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MBS 閉　Capilary IN</t>
-    <rPh sb="4" eb="5">
-      <t>ヘイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3630,6 +3619,285 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>BL2 60Hz入射へルートパターン変更</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・BL2 DAQ60Hz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・RoutePattern BL2 60Hz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（SR）TopUp GUI　RoutePattern 14→11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・BL2 同期収集（shmdaq）60Hzへ変更</t>
+    <rPh sb="5" eb="9">
+      <t>ドウキシュウシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(元はdivide 2/ remainder 1)</t>
+    <rPh sb="1" eb="2">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・BL2 BLDAQデータが60Hzで収集されていることを確認</t>
+    <rPh sb="19" eb="21">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・BL3 のデータを参照する一部FBを停止</t>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータセーブ：2024/11/25 20:51:21 BL2=7.976GeV,10keV,520uJ BL3=7.976GeV,10keV,740uJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロファイル改善</t>
+    <rPh sb="6" eb="8">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　前段強度</t>
+    <rPh sb="3" eb="5">
+      <t>キョウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MBS 閉</t>
+    <rPh sb="4" eb="5">
+      <t>ヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024/11/31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST補正テーブル更新</t>
+    <rPh sb="2" eb="4">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025/01/19 06:33:59 BL2=7.976GeV,10keV,550uJ BL3=7.976GeV,10keV,860uJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2025/02/03 18:22:18 BL2=7.976GeV 10keV 510uJ BL3=7.976GeV 10keV,860uJ</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LB Thy交換</t>
+    <rPh sb="6" eb="8">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>2025/2/14(金)</t>
+  </si>
+  <si>
+    <t>sr_mag_st parmeter save "cycle2024_05_042"</t>
+  </si>
+  <si>
+    <t>sr_mag_quad parmeter save "cycle2024_05_02"</t>
+  </si>
+  <si>
+    <t>sr_mag_xsbt parmeter save "cycle2024_05_06"</t>
+  </si>
+  <si>
+    <t>ユーザータイム終了</t>
+  </si>
+  <si>
+    <t>引き続きBL調整開始</t>
+  </si>
+  <si>
+    <t>TopUp停止</t>
+  </si>
+  <si>
+    <t>GAP LOCK</t>
+  </si>
+  <si>
+    <t>GFO study</t>
+  </si>
+  <si>
+    <t>GFOになってからMBS Lock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MBS開消灯確認後、TopUp SW OFF</t>
+    <rPh sb="3" eb="4">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウトウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カクニンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bl38b2　純度測定停止　MBS Lock</t>
+  </si>
+  <si>
+    <t>SunRay切替え（制御Gr濱野）</t>
+  </si>
+  <si>
+    <t>[ALL GAP]ボタン押して、定点観測Gapセット</t>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アタックチャンスでIDが動き終わって、2分程待ってから</t>
+    <rPh sb="12" eb="13">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ホド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Present position]ボタンを押す</t>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の調整へ</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GFO Study</t>
+  </si>
+  <si>
+    <t>RF 16→10.8MV</t>
+  </si>
+  <si>
+    <t>COD補正、Auto Energy OFF</t>
+  </si>
+  <si>
+    <t>ビーム廃棄　98.411→0mA</t>
+  </si>
+  <si>
+    <t>quadパラメータロード　”cycle2024_05_01”</t>
+  </si>
+  <si>
+    <t>RF 14.4MV -&gt; 16MV</t>
+  </si>
+  <si>
+    <t>SACLA入射タイミング調整</t>
+  </si>
+  <si>
+    <t>マイナス40ps</t>
+  </si>
+  <si>
+    <t>BBF OFF</t>
+  </si>
+  <si>
+    <t>0addressに0.5mAまで積み上げ入射</t>
+  </si>
+  <si>
+    <t>調整1「BBF制御開発のためのRFSoC試験」開始</t>
+  </si>
+  <si>
+    <t>ユーザー運転終了後の手順</t>
+    <rPh sb="4" eb="6">
+      <t>ウンテン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータGUIでロードした後、Main Magnet Power Supply GUIの[Operation]ボタンを押すと子パネルが上がるので、qの欄のSETを押す</t>
+    <rPh sb="14" eb="15">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3641,7 +3909,7 @@
     <numFmt numFmtId="177" formatCode="[$-411]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日 (&quot;aaa&quot;)&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d\(aaa\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3802,8 +4070,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3866,6 +4142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4335,7 +4617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4451,8 +4733,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="ハイパーリンク" xfId="44" builtinId="8"/>
@@ -4605,13 +4899,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>156440</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>55747</xdr:rowOff>
@@ -4649,13 +4943,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>33916</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>50402</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>55747</xdr:rowOff>
@@ -4698,15 +4992,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>186170</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4722,8 +5016,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2788920" y="28087320"/>
-          <a:ext cx="10845800" cy="2959850"/>
+          <a:off x="1506220" y="22600920"/>
+          <a:ext cx="10541000" cy="2959850"/>
           <a:chOff x="2034540" y="447408300"/>
           <a:chExt cx="7917180" cy="2959850"/>
         </a:xfrm>
@@ -5430,6 +5724,49 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338CA9D0-2F7E-4605-82CC-64F31BEF5C3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="50030" t="73122" r="26348" b="1324"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="2523665260"/>
+          <a:ext cx="2194560" cy="1463040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5510,7 +5847,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7194550" y="1854200"/>
+          <a:off x="7296150" y="1854200"/>
           <a:ext cx="4582187" cy="2760006"/>
           <a:chOff x="7437120" y="914400"/>
           <a:chExt cx="4866667" cy="2714286"/>
@@ -5878,7 +6215,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2105585" y="17570824"/>
+          <a:off x="2207185" y="17570824"/>
           <a:ext cx="2038765" cy="2614582"/>
           <a:chOff x="2357717" y="2235474918"/>
           <a:chExt cx="4699415" cy="2668370"/>
@@ -6073,7 +6410,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2132480" y="20901212"/>
+          <a:off x="2234080" y="20901212"/>
           <a:ext cx="1000457" cy="3260945"/>
           <a:chOff x="2689412" y="2238388447"/>
           <a:chExt cx="2422857" cy="3323698"/>
@@ -6230,6 +6567,67 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8ADECA4-AAB0-86AA-725B-F81B020AAAA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="660400" y="28575000"/>
+          <a:ext cx="10172700" cy="7550150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7038,541 +7436,580 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P130"/>
+  <dimension ref="B1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="15.6640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="36.08203125" customWidth="1"/>
-    <col min="4" max="5" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="36.08203125" customWidth="1"/>
+    <col min="5" max="6" width="15.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="58" t="s">
-        <v>445</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="D5" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="E6" t="s">
+      <c r="I5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="11" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>32</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>64</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9">
         <v>32</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>64</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" t="s">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" t="s">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" t="s">
         <v>91</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" t="s">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" t="s">
         <v>94</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" t="s">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" t="s">
         <v>116</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" t="s">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" t="s">
         <v>114</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" t="s">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="E22" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>31</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" t="s">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
         <v>120</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>119</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>43</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" t="s">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
         <v>132</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>131</v>
-      </c>
-      <c r="N24">
-        <v>36</v>
       </c>
       <c r="O24">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" s="2">
+      <c r="P24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="2">
         <v>44383</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="26" t="s">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" t="s">
+    <row r="30" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" t="s">
         <v>163</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="D32" t="s">
+    <row r="32" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" t="s">
         <v>174</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" t="s">
         <v>178</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" t="s">
         <v>177</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" t="s">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" t="s">
         <v>179</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="E40" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D41" s="21" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="59"/>
-      <c r="C43" t="s">
+      <c r="C43" s="61"/>
+      <c r="D43" t="s">
         <v>184</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" t="s">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D45" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="E45" s="21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="E47" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C49" t="s">
+    <row r="49" spans="4:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="E49" s="33" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" t="s">
+    <row r="51" spans="4:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" t="s">
         <v>202</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C53" t="s">
+    <row r="53" spans="4:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D53" t="s">
         <v>204</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" t="s">
+    <row r="55" spans="4:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" t="s">
         <v>206</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D57" s="34">
+    <row r="57" spans="4:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E57" s="34">
         <v>44704.875</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C59" t="s">
+    <row r="59" spans="4:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D59" t="s">
         <v>210</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D61" t="s">
+    <row r="61" spans="4:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E61" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D63" t="s">
+    <row r="63" spans="4:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E63" t="s">
         <v>218</v>
       </c>
-      <c r="M63" s="35" t="s">
+      <c r="N63" s="35" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C65" s="21" t="s">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="E65" s="21" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D67" s="21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C69" s="11" t="s">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E67" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="D69" s="11" t="s">
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" s="11" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C71" s="11" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C72" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C73" t="s">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C74" t="s">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D84" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D95" t="s">
+        <v>399</v>
+      </c>
+      <c r="E95" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C75" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C76" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C77" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C79" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C81" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C82" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C84" s="51" t="s">
+    <row r="97" spans="2:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="D97" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D100" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D101" t="s">
         <v>403</v>
       </c>
-      <c r="D84" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C95" t="s">
-        <v>401</v>
-      </c>
-      <c r="D95" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="C97" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C100" s="52" t="s">
-        <v>408</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C101" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C103" t="s">
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D103" t="s">
+        <v>420</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="58">
+        <v>0.75</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="E105" s="34">
+        <v>45440.225694444445</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D107" t="s">
         <v>422</v>
       </c>
-      <c r="D103" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C105" s="11" t="s">
+      <c r="E107" s="2">
+        <v>45460</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D111" t="s">
+        <v>424</v>
+      </c>
+      <c r="E111" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="D105" s="34">
-        <v>45440.225694444445</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C107" t="s">
-        <v>424</v>
-      </c>
-      <c r="D107" s="2">
-        <v>45460</v>
-      </c>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C110" s="11"/>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C111" t="s">
+    </row>
+    <row r="113" spans="2:6" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="58"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="53" t="s">
         <v>426</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="E113" s="54" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="113" spans="2:5" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B113" s="58"/>
-      <c r="C113" s="53" t="s">
-        <v>428</v>
-      </c>
-      <c r="D113" s="54" t="s">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="60"/>
+      <c r="D114" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B114" s="60"/>
-      <c r="C114" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E115" s="55">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F115" s="55">
         <v>45495.714583333334</v>
       </c>
     </row>
-    <row r="118" spans="2:5" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:6" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="58">
         <v>0.9</v>
       </c>
-      <c r="C118" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="E118" s="56" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D118" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="F118" s="56" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="58">
         <v>0.85</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
+        <v>450</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D122" t="s">
+        <v>447</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D124" t="s">
+        <v>449</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D126" t="s">
         <v>452</v>
       </c>
-      <c r="E120" s="11" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C122" t="s">
-        <v>449</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C124" t="s">
+      <c r="F126" t="s">
         <v>451</v>
       </c>
-      <c r="E124" s="11" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C126" t="s">
+    </row>
+    <row r="128" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="D128" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D130" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="F130" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="E126" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C128" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C130" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>456</v>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C132" s="36">
+        <v>360</v>
+      </c>
+      <c r="D132" t="s">
+        <v>466</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C134" s="36">
+        <v>520</v>
+      </c>
+      <c r="D134" t="s">
+        <v>470</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D136" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{83180166-0133-4AAA-A697-B3706E663658}"/>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{83180166-0133-4AAA-A697-B3706E663658}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7764,12 +8201,12 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="29"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -7812,10 +8249,10 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="29"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
@@ -7876,10 +8313,10 @@
       <c r="D35" s="28">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="62"/>
+      <c r="F35" s="65"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -7908,10 +8345,10 @@
       <c r="D37" s="28">
         <v>0.46666666666666662</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="62"/>
+      <c r="F37" s="65"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
@@ -7924,10 +8361,10 @@
     <row r="38" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="62"/>
+      <c r="F38" s="65"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
@@ -7940,10 +8377,10 @@
     <row r="39" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="29"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="62"/>
+      <c r="F39" s="65"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -8036,10 +8473,10 @@
       <c r="D45" s="28">
         <v>0.49583333333333335</v>
       </c>
-      <c r="E45" s="61" t="s">
+      <c r="E45" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="62"/>
+      <c r="F45" s="65"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -8084,10 +8521,10 @@
     <row r="48" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="29"/>
       <c r="D48" s="30"/>
-      <c r="E48" s="61" t="s">
+      <c r="E48" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="62"/>
+      <c r="F48" s="65"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
@@ -8681,11 +9118,11 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" s="42"/>
       <c r="N6" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -8693,10 +9130,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N7" s="48" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -8712,7 +9149,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -8720,7 +9157,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -8728,7 +9165,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -8754,7 +9191,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C21" s="42"/>
     </row>
@@ -8763,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8771,7 +9208,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8779,12 +9216,12 @@
         <v>3</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8792,7 +9229,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8800,7 +9237,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8808,7 +9245,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -8836,7 +9273,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8844,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8852,7 +9289,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8860,7 +9297,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8868,7 +9305,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8876,7 +9313,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8884,7 +9321,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8892,12 +9329,12 @@
         <v>7</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8905,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8913,7 +9350,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8921,7 +9358,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8929,7 +9366,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8937,7 +9374,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8945,7 +9382,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -8953,7 +9390,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -9094,10 +9531,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63356E66-3FC1-414D-AE99-B6D0A61990DF}">
-  <dimension ref="B5:J65"/>
+  <dimension ref="B5:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9301,9 +9738,217 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D65" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" s="62" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" spans="3:5" s="62" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" s="62" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" s="62" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" t="s">
+        <v>474</v>
+      </c>
+      <c r="D71" s="63">
+        <v>0.40694444444444444</v>
+      </c>
+      <c r="E71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E72" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E73" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" s="63">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E75" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" s="63">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E78" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" s="63">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E79" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" s="63">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E80" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81" s="63"/>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" s="63">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="E82" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D84" s="63">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="E84" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D86" s="63">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="E86" s="66" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E87" s="16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D88" s="63">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="E88" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E89" s="66" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E90" s="66" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E92" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D93" s="63">
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="E93" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D94" s="63">
+        <v>0.43819444444444444</v>
+      </c>
+      <c r="E94" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D95" s="63">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="E95" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96" s="63">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="E96" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D97" s="63">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="E97" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D98" s="63"/>
+      <c r="E98" s="66" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D99" s="63">
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="E99" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D100" s="63">
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="E100" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E101" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D102" s="63">
+        <v>0.44236111111111109</v>
+      </c>
+      <c r="E102" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E103" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D105" s="63">
+        <v>0.44236111111111109</v>
+      </c>
+      <c r="E105" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -9521,716 +10166,559 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49181D1-A1DC-4BCF-82A9-7EE511A37325}">
-  <dimension ref="C2:K153"/>
+  <dimension ref="A2:I117"/>
   <sheetViews>
-    <sheetView topLeftCell="B120" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="93.4140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="93.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
       <c r="C6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
       <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E14" s="21" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E16" s="26" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="26" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="5:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="26" t="s">
+    <row r="20" spans="2:2" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="26" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E24" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="5:5" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="E30" s="26" t="s">
+    <row r="30" spans="2:2" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="26" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E33" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E34" s="14" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E35" s="14" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E36" s="14" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E37" s="14" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E39" s="21" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="21" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="21" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="21" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E41" s="21" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E42" s="21" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="21" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E43" s="21" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="21" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E44" s="21" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="21" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E45" s="21" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="21" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E46" s="21" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="21" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E47" s="21" t="s">
+    <row r="49" spans="2:2" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="12">
+        <v>44950</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="5:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="E49" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E54" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E55" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E56" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E57" s="11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E58" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D66" s="12">
-        <v>44950</v>
-      </c>
-      <c r="E66" s="21" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="21" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E67" s="21" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="21" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E68" s="21" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="21" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E69" s="21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E81" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E82" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E83" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E84" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E85" s="11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E86" s="11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E87" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E88" s="11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E89" s="11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E90" s="11" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E91" s="11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E96" s="11" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="11" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E97" s="11" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="11" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E98" s="11" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="11" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E99" s="11" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="11" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E100" s="11" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="11" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E101" s="11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E102" s="11" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="12">
+        <v>45555</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C106" s="12">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C83" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C84" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C85" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C86" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="12">
         <v>45555</v>
       </c>
-      <c r="E106" s="11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E107" s="11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E108" s="11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E109" s="11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E110" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E111" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C116" s="12">
-        <v>45555</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-    </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="12">
+        <v>45621</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
       <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
-    </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-    </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="11"/>
-    </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
-    </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-    </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-    </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="11"/>
-    </row>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="11"/>
-    </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="11"/>
-    </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="11"/>
-    </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="11"/>
-    </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
-    </row>
-    <row r="129" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
-    </row>
-    <row r="130" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="11"/>
-    </row>
-    <row r="131" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
-    </row>
-    <row r="132" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="11"/>
-    </row>
-    <row r="133" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="11"/>
-    </row>
-    <row r="134" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="11"/>
-    </row>
-    <row r="135" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="11"/>
-    </row>
-    <row r="136" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="11"/>
-    </row>
-    <row r="137" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="11"/>
-    </row>
-    <row r="138" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="11"/>
-    </row>
-    <row r="139" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="11"/>
-    </row>
-    <row r="140" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="11"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="11"/>
-    </row>
-    <row r="141" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="11"/>
-    </row>
-    <row r="142" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="11"/>
-      <c r="J142" s="11"/>
-      <c r="K142" s="11"/>
-    </row>
-    <row r="143" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="11"/>
-    </row>
-    <row r="144" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="11"/>
-      <c r="J144" s="11"/>
-      <c r="K144" s="11"/>
-    </row>
-    <row r="145" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="11"/>
-    </row>
-    <row r="146" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="11"/>
-    </row>
-    <row r="147" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="11"/>
-    </row>
-    <row r="148" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="11"/>
-      <c r="J148" s="11"/>
-      <c r="K148" s="11"/>
-    </row>
-    <row r="149" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E149" s="11"/>
-      <c r="F149" s="11"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="11"/>
-      <c r="J149" s="11"/>
-      <c r="K149" s="11"/>
-    </row>
-    <row r="150" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="11"/>
-      <c r="J150" s="11"/>
-      <c r="K150" s="11"/>
-    </row>
-    <row r="151" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
-      <c r="K151" s="11"/>
-    </row>
-    <row r="152" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
-    </row>
-    <row r="153" spans="5:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="11"/>
-      <c r="J153" s="11"/>
-      <c r="K153" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{77CF49DA-766D-4BB7-9596-E7AA75030CF9}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{65DAD8BD-FE76-413E-82D1-DF42C474817F}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{77CF49DA-766D-4BB7-9596-E7AA75030CF9}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{65DAD8BD-FE76-413E-82D1-DF42C474817F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -10242,7 +10730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C303E80-EDFE-43C2-8BD0-DA1E9DA169AB}">
   <dimension ref="D2:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A101" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -10258,37 +10746,37 @@
     </row>
     <row r="4" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="49" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="49" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="49" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="49" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="49" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="49" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="49" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.55000000000000004">
@@ -10296,62 +10784,62 @@
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -10388,41 +10876,41 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K2" s="50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -10431,10 +10919,10 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -10443,7 +10931,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K9" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -10452,10 +10940,10 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -10464,93 +10952,93 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -10561,14 +11049,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B6E3AB-47CA-47F2-BB00-DD1EC07FE1D1}">
-  <dimension ref="A3:R119"/>
+  <dimension ref="A3:R126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10709,7 +11198,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -10731,7 +11220,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -10806,7 +11295,7 @@
         <v>0.38680555555555557</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -10819,21 +11308,21 @@
         <v>0.41944444444444445</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -10918,14 +11407,14 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="9"/>
       <c r="B65" s="10"/>
       <c r="C65" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -10936,21 +11425,21 @@
       <c r="A67" s="9"/>
       <c r="B67" s="10"/>
       <c r="C67" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="9"/>
       <c r="B68" s="10"/>
       <c r="C68" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -10963,14 +11452,14 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -10983,21 +11472,21 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="9"/>
       <c r="B75" s="10"/>
       <c r="C75" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="9"/>
       <c r="B76" s="10"/>
       <c r="C76" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -11056,7 +11545,7 @@
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="45"/>
@@ -11228,7 +11717,7 @@
       <c r="A110" s="9"/>
       <c r="B110" s="10"/>
       <c r="C110" s="46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D110" s="47"/>
       <c r="E110" s="47"/>
@@ -11240,7 +11729,7 @@
       <c r="A111" s="9"/>
       <c r="B111" s="10"/>
       <c r="C111" s="47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D111" s="47"/>
       <c r="E111" s="47"/>
@@ -11252,7 +11741,7 @@
       <c r="A112" s="9"/>
       <c r="B112" s="10"/>
       <c r="C112" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D112" s="47"/>
       <c r="E112" s="47"/>
@@ -11264,7 +11753,7 @@
       <c r="A113" s="9"/>
       <c r="B113" s="10"/>
       <c r="C113" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D113" s="47"/>
       <c r="E113" s="47"/>
@@ -11286,7 +11775,7 @@
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D115" s="47"/>
       <c r="E115" s="47"/>
@@ -11298,7 +11787,7 @@
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D116" s="47"/>
       <c r="E116" s="47"/>
@@ -11310,7 +11799,7 @@
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D117" s="47"/>
       <c r="E117" s="47"/>
@@ -11337,6 +11826,11 @@
       <c r="F119" s="47"/>
       <c r="G119" s="47"/>
       <c r="H119" s="47"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="12" t="s">
+        <v>469</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\hikitsugi\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenic\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C18B4-1A99-4417-BA76-48F6D51F0709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C8F74A-DB8E-418A-8170-A007611F43D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="908" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SACLAパラメータ" sheetId="7" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="509">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -3895,6 +3895,50 @@
     </rPh>
     <rPh sb="82" eb="83">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カソード交換　チョッパータイミング変更</t>
+    <rPh sb="4" eb="6">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025/04/07 09:08:06 BL2=7.976GeV,10keV,410uJ BL3=7.976GeV,10keV,600uJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter save: 2025/04/08 22:01:54 BL2=7.976GeV,10keV,400uJ BL3=7.976GeV,10keV,600uJ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	2025/04/22 00:22:03 BL2=7.976GeV,10keV,450uJ BL3=7.976GeV,10keV,750uJ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BC1出口での圧縮が上がる様に位相の調整</t>
+    <rPh sb="3" eb="5">
+      <t>デグチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アッシュク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イソウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4742,11 +4786,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="ハイパーリンク" xfId="44" builtinId="8"/>
@@ -7436,10 +7480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q136"/>
+  <dimension ref="B1:Q143"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8004,6 +8048,27 @@
       </c>
       <c r="F136" s="11" t="s">
         <v>472</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D138" t="s">
+        <v>504</v>
+      </c>
+      <c r="F138" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F141" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D143" t="s">
+        <v>508</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -8201,12 +8266,12 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="29"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
@@ -8249,10 +8314,10 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="29"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="65"/>
+      <c r="F31" s="66"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
@@ -8313,10 +8378,10 @@
       <c r="D35" s="28">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="65"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -8345,10 +8410,10 @@
       <c r="D37" s="28">
         <v>0.46666666666666662</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="65"/>
+      <c r="F37" s="66"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
@@ -8361,10 +8426,10 @@
     <row r="38" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="65"/>
+      <c r="F38" s="66"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
@@ -8377,10 +8442,10 @@
     <row r="39" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="29"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="65"/>
+      <c r="F39" s="66"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -8473,10 +8538,10 @@
       <c r="D45" s="28">
         <v>0.49583333333333335</v>
       </c>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="65"/>
+      <c r="F45" s="66"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -8521,10 +8586,10 @@
     <row r="48" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="29"/>
       <c r="D48" s="30"/>
-      <c r="E48" s="64" t="s">
+      <c r="E48" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="65"/>
+      <c r="F48" s="66"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
@@ -9533,7 +9598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63356E66-3FC1-414D-AE99-B6D0A61990DF}">
   <dimension ref="B5:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
+    <sheetView topLeftCell="B71" workbookViewId="0">
       <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
@@ -9831,7 +9896,7 @@
       <c r="D86" s="63">
         <v>0.42083333333333334</v>
       </c>
-      <c r="E86" s="66" t="s">
+      <c r="E86" s="64" t="s">
         <v>483</v>
       </c>
     </row>
@@ -9849,12 +9914,12 @@
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E89" s="66" t="s">
+      <c r="E89" s="64" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E90" s="66" t="s">
+      <c r="E90" s="64" t="s">
         <v>489</v>
       </c>
     </row>
@@ -9905,7 +9970,7 @@
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D98" s="63"/>
-      <c r="E98" s="66" t="s">
+      <c r="E98" s="64" t="s">
         <v>503</v>
       </c>
     </row>

--- a/docs/u運転メモ.xlsx
+++ b/docs/u運転メモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenic\Dropbox\gitdir\hikitsugi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C8F74A-DB8E-418A-8170-A007611F43D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3EC4A6-EBBA-43E2-9B83-C9CE25C888CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SACLAパラメータ" sheetId="7" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="507">
   <si>
     <t>剰余60</t>
     <rPh sb="0" eb="2">
@@ -1189,16 +1189,6 @@
     <t xml:space="preserve">    １．BL装置責任者に連絡</t>
   </si>
   <si>
-    <t>BL3単独60Hzの時はルートパターン10</t>
-    <rPh sb="3" eb="5">
-      <t>タンドク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SR RF OFF</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1376,10 +1366,6 @@
     <rPh sb="23" eb="24">
       <t>ハズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>specDensity_F(←新型Ispecを対象として)調整を行う場合Mode0で使用すること</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4661,7 +4647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4791,6 +4777,13 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="132">
     <cellStyle name="ハイパーリンク" xfId="44" builtinId="8"/>
@@ -5038,13 +5031,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>186170</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5060,7 +5053,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1506220" y="22600920"/>
+          <a:off x="1506220" y="25801320"/>
           <a:ext cx="10541000" cy="2959850"/>
           <a:chOff x="2034540" y="447408300"/>
           <a:chExt cx="7917180" cy="2959850"/>
@@ -5771,15 +5764,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5801,7 +5794,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181600" y="2523665260"/>
+          <a:off x="8769350" y="26388060"/>
           <a:ext cx="2194560" cy="1463040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7482,7 +7475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+    <sheetView topLeftCell="A128" workbookViewId="0">
       <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
@@ -7496,13 +7489,13 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="58" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.55000000000000004">
@@ -7645,124 +7638,124 @@
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="59"/>
       <c r="C43" s="61"/>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D49" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D55" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.55000000000000004">
@@ -7772,139 +7765,139 @@
     </row>
     <row r="59" spans="4:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N63" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D65" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E67" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D71" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D72" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D73" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D74" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D75" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D76" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D77" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D79" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D81" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D82" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D84" s="51" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D95" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E95" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="D97" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D100" s="52" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D101" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D103" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -7912,7 +7905,7 @@
         <v>0.75</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E105" s="34">
         <v>45440.225694444445</v>
@@ -7920,7 +7913,7 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D107" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E107" s="2">
         <v>45460</v>
@@ -7931,26 +7924,26 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D111" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="113" spans="2:6" s="53" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="58"/>
       <c r="C113" s="36"/>
       <c r="D113" s="53" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E113" s="54" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="60"/>
       <c r="D114" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -7963,10 +7956,10 @@
         <v>0.9</v>
       </c>
       <c r="D118" s="57" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F118" s="56" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -7974,50 +7967,50 @@
         <v>0.85</v>
       </c>
       <c r="D120" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D122" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D124" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D126" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F126" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="128" spans="2:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="D128" s="26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D130" s="52" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -8025,10 +8018,10 @@
         <v>360</v>
       </c>
       <c r="D132" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -8036,39 +8029,39 @@
         <v>520</v>
       </c>
       <c r="D134" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D136" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D138" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F138" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F141" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D143" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -8618,7 +8611,7 @@
     <row r="66" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D66" s="36"/>
       <c r="E66" s="36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8627,28 +8620,28 @@
         <v>0.70694444444444438</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" s="19"/>
       <c r="D68" s="14"/>
       <c r="E68" s="38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" s="19"/>
       <c r="D69" s="14"/>
       <c r="E69" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" s="19"/>
       <c r="D70" s="14"/>
       <c r="E70" s="38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8661,7 +8654,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8670,7 +8663,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8683,7 +8676,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8692,7 +8685,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8705,7 +8698,7 @@
         <v>0.71597222222222223</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8718,7 +8711,7 @@
         <v>0.71597222222222223</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8732,7 +8725,7 @@
         <v>0.71597222222222223</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8745,7 +8738,7 @@
         <v>0.71875</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8758,7 +8751,7 @@
         <v>0.71944444444444444</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8771,7 +8764,7 @@
         <v>0.71944444444444444</v>
       </c>
       <c r="E88" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8785,7 +8778,7 @@
         <v>0.71944444444444444</v>
       </c>
       <c r="E90" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8798,7 +8791,7 @@
         <v>0.72013888888888899</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8811,7 +8804,7 @@
         <v>0.72013888888888899</v>
       </c>
       <c r="E94" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8824,7 +8817,7 @@
         <v>0.72152777777777777</v>
       </c>
       <c r="E96" s="38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8837,7 +8830,7 @@
         <v>0.72152777777777777</v>
       </c>
       <c r="E98" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8850,7 +8843,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="E100" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8859,7 +8852,7 @@
         <v>0.72291666666666676</v>
       </c>
       <c r="E101" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8872,14 +8865,14 @@
         <v>0.77013888888888893</v>
       </c>
       <c r="E103" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C104" s="19"/>
       <c r="D104" s="14"/>
       <c r="E104" s="38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8892,21 +8885,21 @@
         <v>0.77430555555555547</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C107" s="19"/>
       <c r="D107" s="14"/>
       <c r="E107" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C108" s="19"/>
       <c r="D108" s="14"/>
       <c r="E108" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8919,14 +8912,14 @@
         <v>0.79583333333333339</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C111" s="19"/>
       <c r="D111" s="14"/>
       <c r="E111" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8939,7 +8932,7 @@
         <v>0.7993055555555556</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8952,7 +8945,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8965,7 +8958,7 @@
         <v>0.80138888888888893</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8974,7 +8967,7 @@
         <v>0.80138888888888893</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8983,7 +8976,7 @@
         <v>0.80138888888888893</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -8992,7 +8985,7 @@
         <v>0.8027777777777777</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9005,7 +8998,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9018,7 +9011,7 @@
         <v>0.8027777777777777</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9031,7 +9024,7 @@
         <v>0.80347222222222225</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9044,7 +9037,7 @@
         <v>0.80347222222222225</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9057,14 +9050,14 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C131" s="19"/>
       <c r="D131" s="14"/>
       <c r="E131" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9077,7 +9070,7 @@
         <v>0.81111111111111101</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9090,7 +9083,7 @@
         <v>0.81180555555555556</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9103,7 +9096,7 @@
         <v>0.81248842592592585</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9116,14 +9109,14 @@
         <v>0.8125</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C140" s="19"/>
       <c r="D140" s="14"/>
       <c r="E140" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9136,7 +9129,7 @@
         <v>0.81379629629629635</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -9183,11 +9176,11 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="42" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C6" s="42"/>
       <c r="N6" s="40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -9195,10 +9188,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N7" s="48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -9214,7 +9207,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -9222,7 +9215,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -9230,7 +9223,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -9241,22 +9234,22 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="42" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C21" s="42"/>
     </row>
@@ -9265,7 +9258,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9273,7 +9266,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9281,12 +9274,12 @@
         <v>3</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9294,7 +9287,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9302,7 +9295,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9310,7 +9303,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -9338,7 +9331,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9346,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9354,7 +9347,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9362,7 +9355,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9370,7 +9363,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9378,7 +9371,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9386,7 +9379,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9394,12 +9387,12 @@
         <v>7</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9407,7 +9400,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9415,7 +9408,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9423,7 +9416,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9431,7 +9424,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9439,7 +9432,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9447,7 +9440,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -9455,7 +9448,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -9737,12 +9730,12 @@
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D44" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D45" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.55000000000000004">
@@ -9750,12 +9743,12 @@
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D47" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D48" s="32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.55000000000000004">
@@ -9763,7 +9756,7 @@
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D50" s="32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.55000000000000004">
@@ -9771,7 +9764,7 @@
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D52" s="32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.55000000000000004">
@@ -9779,7 +9772,7 @@
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D54" s="32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.55000000000000004">
@@ -9787,7 +9780,7 @@
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.55000000000000004">
@@ -9795,45 +9788,45 @@
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D58" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="3:5" s="62" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="69" spans="3:5" s="62" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" s="62" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="3:5" s="62" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="71" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D71" s="63">
         <v>0.40694444444444444</v>
       </c>
       <c r="E71" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E72" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E73" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9841,12 +9834,12 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E75" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E76" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9854,7 +9847,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E78" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9862,7 +9855,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E79" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -9870,7 +9863,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E80" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -9881,7 +9874,7 @@
         <v>0.41875000000000001</v>
       </c>
       <c r="E82" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -9889,7 +9882,7 @@
         <v>0.41875000000000001</v>
       </c>
       <c r="E84" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -9897,12 +9890,12 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="E86" s="64" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E87" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -9910,22 +9903,22 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E89" s="64" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E90" s="64" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E92" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -9933,7 +9926,7 @@
         <v>0.43125000000000002</v>
       </c>
       <c r="E93" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -9941,7 +9934,7 @@
         <v>0.43819444444444444</v>
       </c>
       <c r="E94" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -9949,7 +9942,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="E95" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -9957,7 +9950,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="E96" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -9965,13 +9958,13 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="E97" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D98" s="63"/>
       <c r="E98" s="64" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -9979,7 +9972,7 @@
         <v>0.43958333333333333</v>
       </c>
       <c r="E99" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -9987,12 +9980,12 @@
         <v>0.43958333333333333</v>
       </c>
       <c r="E100" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E101" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -10000,12 +9993,12 @@
         <v>0.44236111111111109</v>
       </c>
       <c r="E102" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E103" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.55000000000000004">
@@ -10013,7 +10006,7 @@
         <v>0.44236111111111109</v>
       </c>
       <c r="E105" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -10084,17 +10077,17 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -10108,7 +10101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="O27:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="E39" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -10231,10 +10224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49181D1-A1DC-4BCF-82A9-7EE511A37325}">
-  <dimension ref="A2:I117"/>
+  <dimension ref="A2:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10294,417 +10287,383 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" t="s">
-        <v>171</v>
-      </c>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="26"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="21" t="s">
-        <v>275</v>
+      <c r="B39" s="33" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="68">
+        <v>45621</v>
+      </c>
+      <c r="B53" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="67"/>
+      <c r="B54" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="67"/>
+      <c r="B55" s="47" t="s">
+        <v>457</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="67"/>
+      <c r="B56" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="67"/>
+      <c r="B57" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="67"/>
+      <c r="B58" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="67"/>
+      <c r="B59" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="67"/>
+      <c r="B60" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="67"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="12">
+        <v>44950</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="21" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="11" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="11" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="12">
-        <v>44950</v>
-      </c>
-      <c r="B66" s="21" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="21" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="21" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="21" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="21" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="11" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="11" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="11" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="11" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="11" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="11" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="11" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="11" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="11" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="11" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="11" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="12">
+        <v>45555</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="12">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C98" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C102" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="12">
         <v>45555</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C83" s="11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C84" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C85" s="11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C86" s="11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C87" s="11" t="s">
+      <c r="C107" s="11" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="12">
-        <v>45555</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
@@ -10712,72 +10671,140 @@
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
     </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+    </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="12">
-        <v>45621</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>457</v>
-      </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B111" s="11" t="s">
-        <v>458</v>
-      </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B112" s="11" t="s">
-        <v>459</v>
-      </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B113" s="11" t="s">
-        <v>460</v>
-      </c>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+    </row>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B114" s="11" t="s">
-        <v>461</v>
-      </c>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B115" s="11" t="s">
-        <v>462</v>
-      </c>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+    </row>
+    <row r="115" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B116" s="11" t="s">
-        <v>463</v>
-      </c>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+    </row>
+    <row r="116" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B117" s="11" t="s">
-        <v>464</v>
-      </c>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+    </row>
+    <row r="117" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+    </row>
+    <row r="118" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+    </row>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+    </row>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+    </row>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+    </row>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10793,55 +10820,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C303E80-EDFE-43C2-8BD0-DA1E9DA169AB}">
-  <dimension ref="D2:D31"/>
+  <dimension ref="D3:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D2" t="s">
-        <v>152</v>
-      </c>
-    </row>
     <row r="3" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="49"/>
     </row>
     <row r="4" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="49" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="49" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="49" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="49" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="49" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="49" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="49" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.55000000000000004">
@@ -10849,62 +10871,62 @@
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -10933,7 +10955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB37B2B3-FFEB-4EC8-9279-E0919988488F}">
   <dimension ref="B2:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -10941,41 +10963,41 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K2" s="50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -10984,10 +11006,10 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -10996,7 +11018,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K9" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -11005,10 +11027,10 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -11017,93 +11039,93 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -11116,7 +11138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B6E3AB-47CA-47F2-BB00-DD1EC07FE1D1}">
   <dimension ref="A3:R126"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
@@ -11263,7 +11285,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -11285,7 +11307,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -11360,7 +11382,7 @@
         <v>0.38680555555555557</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -11373,21 +11395,21 @@
         <v>0.41944444444444445</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -11472,14 +11494,14 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="9"/>
       <c r="B65" s="10"/>
       <c r="C65" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -11490,21 +11512,21 @@
       <c r="A67" s="9"/>
       <c r="B67" s="10"/>
       <c r="C67" s="44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="9"/>
       <c r="B68" s="10"/>
       <c r="C68" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -11517,14 +11539,14 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -11537,21 +11559,21 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="9"/>
       <c r="B75" s="10"/>
       <c r="C75" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="9"/>
       <c r="B76" s="10"/>
       <c r="C76" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -11610,7 +11632,7 @@
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="45" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="45"/>
@@ -11782,7 +11804,7 @@
       <c r="A110" s="9"/>
       <c r="B110" s="10"/>
       <c r="C110" s="46" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D110" s="47"/>
       <c r="E110" s="47"/>
@@ -11794,7 +11816,7 @@
       <c r="A111" s="9"/>
       <c r="B111" s="10"/>
       <c r="C111" s="47" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D111" s="47"/>
       <c r="E111" s="47"/>
@@ -11806,7 +11828,7 @@
       <c r="A112" s="9"/>
       <c r="B112" s="10"/>
       <c r="C112" s="47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D112" s="47"/>
       <c r="E112" s="47"/>
@@ -11818,7 +11840,7 @@
       <c r="A113" s="9"/>
       <c r="B113" s="10"/>
       <c r="C113" s="47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D113" s="47"/>
       <c r="E113" s="47"/>
@@ -11840,7 +11862,7 @@
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="47" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D115" s="47"/>
       <c r="E115" s="47"/>
@@ -11852,7 +11874,7 @@
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="47" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D116" s="47"/>
       <c r="E116" s="47"/>
@@ -11864,7 +11886,7 @@
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="47" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D117" s="47"/>
       <c r="E117" s="47"/>
@@ -11894,7 +11916,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
